--- a/conven_control/data/random_curve_pos.xlsx
+++ b/conven_control/data/random_curve_pos.xlsx
@@ -112,10 +112,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -123,7 +123,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>0.7238</v>
       </c>
@@ -132,45 +132,19 @@
         <v>-0.0505</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>0.2</v>
+        <v>-0.278</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>0.0023778</v>
+        <v>-122.4354</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>0.9308248</v>
+        <v>42.8765</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>-0.00228541</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>0.365421</v>
+        <v>179.7921</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0.7238</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">-0.055+0.0045</f>
-        <v>-0.0505</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.0447</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.924193</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>-0.11067</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.362793</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/conven_control/data/random_curve_pos.xlsx
+++ b/conven_control/data/random_curve_pos.xlsx
@@ -115,7 +115,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -138,13 +138,33 @@
         <v>-122.4354</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>42.8765</v>
+        <v>42.95924</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>179.7921</v>
+        <v>179.8498</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.7238</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">-0.055+0.0045</f>
+        <v>-0.0505</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-166.32145</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>42.90666</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>179.8983</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/conven_control/data/random_curve_pos.xlsx
+++ b/conven_control/data/random_curve_pos.xlsx
@@ -56,12 +56,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -90,8 +97,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -112,10 +123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -125,57 +136,404 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
-        <v>0.7238</v>
+        <v>0.76</v>
       </c>
       <c r="B1" s="0" t="n">
-        <f aca="false">-0.055+0.0045</f>
-        <v>-0.0505</v>
+        <v>-0.07</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>-0.278</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>-122.4354</v>
+        <v>-179.997</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>42.95924</v>
+        <v>61.018</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>179.8498</v>
+        <v>179.998</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>0.7238</v>
+        <v>0.76</v>
       </c>
       <c r="B2" s="0" t="n">
-        <f aca="false">-0.055+0.0045</f>
-        <v>-0.0505</v>
+        <v>-0.05</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>-0.278</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-166.32145</v>
+        <v>-179.997</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>42.90666</v>
+        <v>61.018</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>179.8983</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>179.998</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-179.997</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>61.018</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>179.998</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>-179.997</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>61.018</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>179.998</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-179.997</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>61.018</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>179.998</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-179.8074</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>63.36577</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>179.95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-179.8074</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>63.36577</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>179.95</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>-179.8074</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>63.36577</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>179.95</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>-179.8074</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>63.36577</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>179.95</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>-179.8074</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>63.36577</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>179.95</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>-0.148179</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>71.5783</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.44487</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>-0.148179</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>71.5783</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.44487</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>-0.148179</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>71.5783</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.44487</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>-0.148179</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>71.5783</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.44487</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>-0.148179</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>71.5783</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.44487</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>-0.05523</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>73.6894</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.18874</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>-0.05523</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>73.6894</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.18874</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>-0.05523</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>73.6894</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.18874</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>-0.05523</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>73.6894</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.18874</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>-0.05523</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>73.6894</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.18874</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
